--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/10.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/10.xlsx
@@ -479,13 +479,13 @@
         <v>-15.05160926105479</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.47509968982012</v>
+        <v>-21.52561779777595</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0797447257101852</v>
+        <v>-0.09028542451525384</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.928240917974744</v>
+        <v>-8.912703654151688</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-14.75043781939543</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.62689846403096</v>
+        <v>-21.67604276105719</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2088682860722759</v>
+        <v>-0.2207387947451454</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.440127361388821</v>
+        <v>-8.429601329604354</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-14.33678770544992</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.8364461873538</v>
+        <v>-21.87258572611404</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3574696497921557</v>
+        <v>-0.370909529669305</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.343378804499443</v>
+        <v>-8.327269526872957</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-13.81889975812506</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.9584904657726</v>
+        <v>-21.99455666942983</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3817973479619245</v>
+        <v>-0.3941616463283524</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.846044580962519</v>
+        <v>-7.819526607716373</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.21271177599841</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.9203953242656</v>
+        <v>-21.94329054342336</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5048243167609723</v>
+        <v>-0.5163672619737585</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.147576614920715</v>
+        <v>-7.125453858847925</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-12.54204453350396</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.18972093455021</v>
+        <v>-22.21471842666075</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6336692037316488</v>
+        <v>-0.655210167987276</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.567769734545804</v>
+        <v>-6.544600731003494</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-11.8179749371148</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.5787000988957</v>
+        <v>-22.60282245877706</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8028923984161759</v>
+        <v>-0.8233333361267473</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.146420455734473</v>
+        <v>-6.125383059186138</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-11.05262045873081</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.85520277126094</v>
+        <v>-22.88084561227791</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.9206832408607578</v>
+        <v>-0.9430406692631599</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.83529383673774</v>
+        <v>-5.807690503967137</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-10.26669128259598</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.31844594991486</v>
+        <v>-23.33732240542802</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.017705582134685</v>
+        <v>-1.042531959004879</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.526738835353004</v>
+        <v>-5.50284625879439</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-9.469357470027209</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.74661050429867</v>
+        <v>-23.76141441709169</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.270829023662339</v>
+        <v>-1.298520358556546</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.145401188740505</v>
+        <v>-5.112943072151056</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.66125386333022</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.21788632123494</v>
+        <v>-24.2302897316563</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.19442851335306</v>
+        <v>-1.218017971485924</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.9720223382191</v>
+        <v>-4.943631875342924</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.835364980729349</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.81462872139685</v>
+        <v>-24.82410361670493</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.115862173001736</v>
+        <v>-1.14370017810195</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.876183136606966</v>
+        <v>-4.854079936561643</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.001902747598286</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.4208215718325</v>
+        <v>-25.42745106514403</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.041065256944804</v>
+        <v>-1.073249589149706</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.742371018659504</v>
+        <v>-4.719290017240798</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.159021752811727</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.04027340889122</v>
+        <v>-26.0458175426783</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9958419434258413</v>
+        <v>-1.028295171008423</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.745221309662915</v>
+        <v>-4.728554685253602</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.305885937537655</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.81093489483332</v>
+        <v>-26.8183784077882</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9053562043329794</v>
+        <v>-0.9342013448477776</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.679317497096902</v>
+        <v>-4.668390566749347</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.447567903184473</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.58134704142521</v>
+        <v>-27.58251306956297</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7877169211012719</v>
+        <v>-0.8132130919122333</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.69944553836799</v>
+        <v>-4.691808909641869</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.600740337936589</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.44947821276957</v>
+        <v>-28.45631059986608</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6291419833728856</v>
+        <v>-0.6497980373856013</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.94216517328285</v>
+        <v>-4.94013623543308</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.777156971559606</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.11470337661979</v>
+        <v>-29.11638030597514</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.3697752800761807</v>
+        <v>-0.3950563345849979</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.201497653531487</v>
+        <v>-5.211153442093643</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.985168181177729</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.53865360708431</v>
+        <v>-29.53953118381693</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.167477953936974</v>
+        <v>-0.191042967035504</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.529540236287746</v>
+        <v>-5.536375067887692</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.239898613185766</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.13132835353295</v>
+        <v>-30.13132346452608</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2475107269405007</v>
+        <v>0.2208705285226811</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.840578853160874</v>
+        <v>-5.852957818547903</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.5547200363787681</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.68252476572267</v>
+        <v>-30.68750910822349</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2890868413367454</v>
+        <v>0.269447700752348</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.109523120909865</v>
+        <v>-6.122078090544103</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.06202146418225233</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.01713572920463</v>
+        <v>-31.01809397455055</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5734119246890511</v>
+        <v>0.5540172344479996</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.401846619496444</v>
+        <v>-6.413350452654296</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6099866958398019</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.22064064003997</v>
+        <v>-31.22580343129143</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7712455875587645</v>
+        <v>0.7506824246765202</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.655282957463582</v>
+        <v>-6.672917605232544</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.082766028140324</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.52116300314236</v>
+        <v>-31.52855029251827</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9992101997492747</v>
+        <v>0.9832671483562651</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.701567185472665</v>
+        <v>-6.722193905444179</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.480558209675281</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.43104393956452</v>
+        <v>-31.43871234683527</v>
       </c>
       <c r="F26" t="n">
-        <v>1.026324631833185</v>
+        <v>1.007198836969814</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.876197621752</v>
+        <v>-6.906304126038463</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.806360573660569</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.52997054901311</v>
+        <v>-31.53993434500788</v>
       </c>
       <c r="F27" t="n">
-        <v>1.277438691538537</v>
+        <v>1.257760438899205</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.137989272454695</v>
+        <v>-7.167176643450177</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.065002386020512</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.34596299756303</v>
+        <v>-31.35545011538828</v>
       </c>
       <c r="F28" t="n">
-        <v>1.430498829521044</v>
+        <v>1.415176682000132</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.304987969014776</v>
+        <v>-7.342281313395604</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.254415538880689</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.1511531854405</v>
+        <v>-31.16158877059793</v>
       </c>
       <c r="F29" t="n">
-        <v>1.454459852175794</v>
+        <v>1.437788338759614</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.601648016692308</v>
+        <v>-7.640980076936639</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.374947531555976</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.0368970949607</v>
+        <v>-31.05271303217517</v>
       </c>
       <c r="F30" t="n">
-        <v>1.574973871445247</v>
+        <v>1.562487347907147</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.63175452097877</v>
+        <v>-7.674655556235949</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.426478781668647</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.75938239817401</v>
+        <v>-30.77157558130009</v>
       </c>
       <c r="F31" t="n">
-        <v>1.496363530032122</v>
+        <v>1.475834590197946</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.591131762921574</v>
+        <v>-7.62558948331959</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.406581058879855</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.35286147719003</v>
+        <v>-30.36737204957103</v>
       </c>
       <c r="F32" t="n">
-        <v>1.461636914256425</v>
+        <v>1.445679195842815</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.59026640870613</v>
+        <v>-7.620289799875855</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.311930781137689</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.85446878366642</v>
+        <v>-29.86698708574916</v>
       </c>
       <c r="F33" t="n">
-        <v>1.414433552956361</v>
+        <v>1.393968170211455</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.842798280402888</v>
+        <v>-7.874317707673889</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.142210358319002</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.26924488368297</v>
+        <v>-29.28569150278327</v>
       </c>
       <c r="F34" t="n">
-        <v>1.41106013821819</v>
+        <v>1.392261906814902</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.844739216129053</v>
+        <v>-7.880174737900453</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.894791333752301</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.80123981234067</v>
+        <v>-28.81512703634614</v>
       </c>
       <c r="F35" t="n">
-        <v>1.427897877867845</v>
+        <v>1.40719293378646</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.833025155675925</v>
+        <v>-7.863459223422471</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.567990084329564</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.17488714208929</v>
+        <v>-28.18727099648319</v>
       </c>
       <c r="F36" t="n">
-        <v>1.349395094605792</v>
+        <v>1.331921784063438</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.674249768665995</v>
+        <v>-7.69522360812506</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.162090177466109</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.52665127710161</v>
+        <v>-27.53902535348177</v>
       </c>
       <c r="F37" t="n">
-        <v>1.441469760930401</v>
+        <v>1.422480858259303</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.591131762921574</v>
+        <v>-7.612154492449308</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6823339855359455</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.95517770893135</v>
+        <v>-26.96191476039396</v>
       </c>
       <c r="F38" t="n">
-        <v>1.285432217765943</v>
+        <v>1.261612976310334</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.535426418679945</v>
+        <v>-7.552093043089258</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.1277612615341978</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.19522559253122</v>
+        <v>-26.19701985805138</v>
       </c>
       <c r="F39" t="n">
-        <v>1.359691343067515</v>
+        <v>1.341650907728598</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.457925881825609</v>
+        <v>-7.467889677820382</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.4958990034751401</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.55166606261174</v>
+        <v>-25.55410567703833</v>
       </c>
       <c r="F40" t="n">
-        <v>1.360659366427164</v>
+        <v>1.338443719223902</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.135466544911367</v>
+        <v>-7.143240065829762</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.178590673562377</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.98655553687878</v>
+        <v>-24.98511327985304</v>
       </c>
       <c r="F41" t="n">
-        <v>1.409138758519492</v>
+        <v>1.390042297697323</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.135471433918234</v>
+        <v>-7.136087448783465</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.90659839701886</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.30200168438021</v>
+        <v>-24.30282303753386</v>
       </c>
       <c r="F42" t="n">
-        <v>1.415372242274809</v>
+        <v>1.393449935483562</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.867842309016443</v>
+        <v>-6.870897938308264</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.673662300246354</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.61718382551084</v>
+        <v>-23.61921765236747</v>
       </c>
       <c r="F43" t="n">
-        <v>1.366413727509523</v>
+        <v>1.345043878494237</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.819944708741277</v>
+        <v>-6.819284692814244</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.46824528608929</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.93224374146978</v>
+        <v>-22.93169617270069</v>
       </c>
       <c r="F44" t="n">
-        <v>1.475834590197946</v>
+        <v>1.454899862793816</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.73953032379426</v>
+        <v>-6.737095598374537</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.274739980296403</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.09990987840498</v>
+        <v>-22.0982965061389</v>
       </c>
       <c r="F45" t="n">
-        <v>1.525702460240479</v>
+        <v>1.502518789677568</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.59506505988379</v>
+        <v>-6.589858267570525</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.082189401502136</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.58088313139956</v>
+        <v>-21.57761238580559</v>
       </c>
       <c r="F46" t="n">
-        <v>1.519767205904044</v>
+        <v>1.495952853455301</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.473617240302755</v>
+        <v>-6.47437014736026</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.884445811178623</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.90378501437304</v>
+        <v>-20.89368921519286</v>
       </c>
       <c r="F47" t="n">
-        <v>1.595737483609035</v>
+        <v>1.574665864012632</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.455855478355254</v>
+        <v>-6.454765229823932</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.673704998782643</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.26990082904318</v>
+        <v>-20.25700851793513</v>
       </c>
       <c r="F48" t="n">
-        <v>1.640691901750318</v>
+        <v>1.621707888086087</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.437790597982003</v>
+        <v>-6.433664276186327</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.434473988929064</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.50271298248002</v>
+        <v>-19.4852201159102</v>
       </c>
       <c r="F49" t="n">
-        <v>1.785342947921731</v>
+        <v>1.7637286485631</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.200223976304872</v>
+        <v>-6.198053257255962</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.16385896224957</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.11268757066501</v>
+        <v>-19.09159639504114</v>
       </c>
       <c r="F50" t="n">
-        <v>1.784907826310575</v>
+        <v>1.759964113275575</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.208129500408673</v>
+        <v>-6.209459310276475</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.858159409111037</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.53193222295792</v>
+        <v>-18.51206818805765</v>
       </c>
       <c r="F51" t="n">
-        <v>1.749159408099693</v>
+        <v>1.730771853273226</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.259209844154201</v>
+        <v>-6.263145494682067</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.512559303689628</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.04878589734879</v>
+        <v>-18.03843586981153</v>
       </c>
       <c r="F52" t="n">
-        <v>1.759206317211203</v>
+        <v>1.734956843151305</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.270772345394454</v>
+        <v>-6.273700860507737</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-10.1144531747616</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.65106518872525</v>
+        <v>-17.63736619148416</v>
       </c>
       <c r="F53" t="n">
-        <v>1.846211083414822</v>
+        <v>1.820475351267381</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.183308012545346</v>
+        <v>-6.182916891995993</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-10.66462475288043</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.02625988914726</v>
+        <v>-17.00964215480661</v>
       </c>
       <c r="F54" t="n">
-        <v>1.903617802046137</v>
+        <v>1.876953158593983</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.182320433158229</v>
+        <v>-6.184642711420014</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-11.16278154829896</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.80942754559271</v>
+        <v>-16.79790904541426</v>
       </c>
       <c r="F55" t="n">
-        <v>1.884360003997359</v>
+        <v>1.862115022752896</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.414880711803639</v>
+        <v>-6.41995061192463</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-11.6024050117572</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.24964114833782</v>
+        <v>-16.24044492642115</v>
       </c>
       <c r="F56" t="n">
-        <v>1.912070894919033</v>
+        <v>1.891644624229062</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.310402635057668</v>
+        <v>-6.317286356726283</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-11.97379265988119</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.15249658189222</v>
+        <v>-16.14333458302362</v>
       </c>
       <c r="F57" t="n">
-        <v>1.953578563219141</v>
+        <v>1.932453164547201</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.48519440856361</v>
+        <v>-6.498707623543764</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-12.27444978004196</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.92970942797377</v>
+        <v>-15.92419951723476</v>
       </c>
       <c r="F58" t="n">
-        <v>1.836574850880133</v>
+        <v>1.815909018853683</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.638601666033668</v>
+        <v>-6.651713982450733</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-12.50436975313926</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.6677662180582</v>
+        <v>-15.66291143423935</v>
       </c>
       <c r="F59" t="n">
-        <v>1.894211352834193</v>
+        <v>1.873183734299592</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.417545220546108</v>
+        <v>-6.424042710672238</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-12.65409044061516</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.43710287407715</v>
+        <v>-15.43700020493295</v>
       </c>
       <c r="F60" t="n">
-        <v>1.960833849409643</v>
+        <v>1.940084904266456</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.451748712587046</v>
+        <v>-6.455146572359551</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-12.71849955371594</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.2877437142929</v>
+        <v>-15.29043266806971</v>
       </c>
       <c r="F61" t="n">
-        <v>1.905035614037542</v>
+        <v>1.88456534228577</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.292489313897291</v>
+        <v>-6.290401707965118</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-12.70037292514642</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.25119838796271</v>
+        <v>-15.2588252386751</v>
       </c>
       <c r="F62" t="n">
-        <v>1.907382337333662</v>
+        <v>1.882687963648874</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.373749497032284</v>
+        <v>-6.372302350999678</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-12.60604091001631</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.19161117226875</v>
+        <v>-15.20388257950471</v>
       </c>
       <c r="F63" t="n">
-        <v>1.889019227541529</v>
+        <v>1.868392507570015</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.42034662148085</v>
+        <v>-6.412514432480052</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-12.43235390046712</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.23439976036799</v>
+        <v>-15.25071437628289</v>
       </c>
       <c r="F64" t="n">
-        <v>1.73491773109637</v>
+        <v>1.712222961220151</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.414391811116948</v>
+        <v>-6.405019584953072</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-12.18380229985507</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.27341892417284</v>
+        <v>-15.29401631010315</v>
       </c>
       <c r="F65" t="n">
-        <v>1.731431869200259</v>
+        <v>1.707700629868254</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.518703661629446</v>
+        <v>-6.508632307483601</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-11.87288443495405</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.27783369737367</v>
+        <v>-15.30049913320868</v>
       </c>
       <c r="F66" t="n">
-        <v>1.817629949270837</v>
+        <v>1.800371755030627</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.462396969543186</v>
+        <v>-6.455361688661696</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-11.50940843058379</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.15390715131111</v>
+        <v>-15.17842063174182</v>
       </c>
       <c r="F67" t="n">
-        <v>1.638482070646473</v>
+        <v>1.622788358603676</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.231718958541538</v>
+        <v>-6.217438169483279</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-11.09726785610369</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.27677278288355</v>
+        <v>-15.30698684532108</v>
       </c>
       <c r="F68" t="n">
-        <v>1.60179985212401</v>
+        <v>1.58435098661599</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.355577058507961</v>
+        <v>-6.339902902492632</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.64268691065161</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.18413588076924</v>
+        <v>-15.21516640735355</v>
       </c>
       <c r="F69" t="n">
-        <v>1.574074294181735</v>
+        <v>1.552978229550997</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.202316471243911</v>
+        <v>-6.197427464376997</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.16294840715032</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.23319217567187</v>
+        <v>-15.26511739051282</v>
       </c>
       <c r="F70" t="n">
-        <v>1.492466991559191</v>
+        <v>1.477912418116385</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.154399314941278</v>
+        <v>-6.142259910890728</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.664165059714939</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.25609717284336</v>
+        <v>-15.28936197556585</v>
       </c>
       <c r="F71" t="n">
-        <v>1.385221736926544</v>
+        <v>1.369674695089755</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.155377116314662</v>
+        <v>-6.1456333256289</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.147921340323249</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.37313510823044</v>
+        <v>-15.40804261726021</v>
       </c>
       <c r="F72" t="n">
-        <v>1.30499313424047</v>
+        <v>1.291435918198515</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.016939997871098</v>
+        <v>-6.009577153529523</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.613819848367809</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.48321109783903</v>
+        <v>-15.51722391861216</v>
       </c>
       <c r="F73" t="n">
-        <v>1.234606102377496</v>
+        <v>1.22249114336128</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.163458644665671</v>
+        <v>-6.158070959098331</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.068163204105714</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.6027033146733</v>
+        <v>-15.63472630965159</v>
       </c>
       <c r="F74" t="n">
-        <v>1.105462985987937</v>
+        <v>1.089813275006942</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.072796901325601</v>
+        <v>-6.069663047923909</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-7.50562092138247</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.85165154433661</v>
+        <v>-15.8863781601123</v>
       </c>
       <c r="F75" t="n">
-        <v>1.04802693331542</v>
+        <v>1.031707428393658</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.106198596240364</v>
+        <v>-6.104184325411195</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.918617510160193</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.87396008267034</v>
+        <v>-15.90780667720999</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8409188244191694</v>
+        <v>0.8199303179395036</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.224243667042025</v>
+        <v>-6.221794274601701</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.304824916479253</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.93769806519431</v>
+        <v>-15.96814191095459</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6906894214126069</v>
+        <v>0.6728103233002989</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.155088664909513</v>
+        <v>-6.15311350613528</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.664590778038519</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.08430960311935</v>
+        <v>-16.11229916743244</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7060946820502559</v>
+        <v>0.6889049339061829</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.127592890289984</v>
+        <v>-6.125588397474548</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.994840586755181</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.20779124955703</v>
+        <v>-16.23629904859801</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4234660840807696</v>
+        <v>0.4038171654826385</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.142167019760257</v>
+        <v>-6.14361905479973</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.287507021873806</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.6896908784151</v>
+        <v>-16.71703020481489</v>
       </c>
       <c r="F80" t="n">
-        <v>0.4087452844044888</v>
+        <v>0.3881430094673092</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.096929039220693</v>
+        <v>-6.105279462949384</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.544788172886499</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.16751796455303</v>
+        <v>-17.18700065691769</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2369504721079644</v>
+        <v>0.2164264212806554</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.193467368814796</v>
+        <v>-6.206437904032721</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.767725241863</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.59982839675999</v>
+        <v>-17.62025955645682</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.07261655369822322</v>
+        <v>-0.08998719509637203</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.242533441731154</v>
+        <v>-6.255699537223756</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-1.959531122604016</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.08837707495706</v>
+        <v>-18.10304898456467</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.08117231571532438</v>
+        <v>-0.09987765598814097</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.279303662377221</v>
+        <v>-6.297740107272357</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.116294799224506</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.86724475892528</v>
+        <v>-18.88032774130115</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1787226697308783</v>
+        <v>-0.1960590880809587</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.298517459364197</v>
+        <v>-6.322620263218088</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2474765629807795</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.55831565757745</v>
+        <v>-19.56832834364089</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3341295310095038</v>
+        <v>-0.3523068585406935</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.392166385899952</v>
+        <v>-6.419911499869695</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.6399025013858468</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.21660576518694</v>
+        <v>-20.22611488354309</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.4891306047181753</v>
+        <v>-0.5114000309969728</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.642219531115185</v>
+        <v>-6.674545644519227</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>1.538402808368</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.96963993687038</v>
+        <v>-20.9779121364892</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5899957053894976</v>
+        <v>-0.6133504911927503</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.969680322054281</v>
+        <v>-7.004724723276327</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>2.443122582060294</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.81600524964323</v>
+        <v>-21.82679039879164</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7050095919336717</v>
+        <v>-0.7264625540656946</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.242428237145732</v>
+        <v>-7.284390583084464</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>3.339549228922503</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.81202795161921</v>
+        <v>-22.82012414699082</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9191285366770788</v>
+        <v>-0.940561942781634</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.314829539837875</v>
+        <v>-7.360575977091599</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>4.209491661977855</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.88641654466497</v>
+        <v>-23.8888806041259</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.173552454031333</v>
+        <v>-1.191925341837199</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.681475720815295</v>
+        <v>-7.724963436896504</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>5.037947786568018</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.10719667032677</v>
+        <v>-25.10397481480147</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.108352658454155</v>
+        <v>-1.122090767750186</v>
       </c>
       <c r="G91" t="n">
-        <v>-8.049603270873391</v>
+        <v>-8.095222593948574</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>5.806893389162723</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.38076340313065</v>
+        <v>-26.37494059595215</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.327028157597527</v>
+        <v>-1.337221736915045</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.33723332286773</v>
+        <v>-8.385316705403838</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>6.495908509021572</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.65085649655558</v>
+        <v>-27.64057247061102</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.602787700918997</v>
+        <v>-1.619077871799558</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.648584836180342</v>
+        <v>-8.696448213407439</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>7.080773602889389</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.16027869863317</v>
+        <v>-29.1458585728792</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.852689286921355</v>
+        <v>-1.863127316582218</v>
       </c>
       <c r="G94" t="n">
-        <v>-8.984024486326243</v>
+        <v>-9.032288762116428</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>7.551119665382227</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.79255919877289</v>
+        <v>-30.77789462267558</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.117908131437757</v>
+        <v>-2.124034057042002</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.265523723709473</v>
+        <v>-9.310043020239601</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>7.88934855037218</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.63526744347151</v>
+        <v>-32.62085709573127</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.139004196068495</v>
+        <v>-2.141908266147443</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.622343000884394</v>
+        <v>-9.664491129084066</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>8.095000080225615</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.35835391265388</v>
+        <v>-34.34087571310466</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.493897204537851</v>
+        <v>-2.495466575742131</v>
       </c>
       <c r="G97" t="n">
-        <v>-9.989258077239493</v>
+        <v>-10.02884925484777</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>8.145308999767511</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.3516386798466</v>
+        <v>-36.33053283720213</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.888801845206039</v>
+        <v>-2.891085011412889</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.43331679294764</v>
+        <v>-10.46679182296541</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>8.067224318329798</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.39180168938275</v>
+        <v>-38.36280254515164</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.161847989716372</v>
+        <v>-3.165275183530079</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.77411479461968</v>
+        <v>-10.80500842901172</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>7.832556140053763</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.59516952615024</v>
+        <v>-40.56752219231783</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.522304688000278</v>
+        <v>-3.526049667260335</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.95627430147407</v>
+        <v>-10.98742216422318</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>7.50664434685386</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.50591807941571</v>
+        <v>-42.48031923946054</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.957220960867298</v>
+        <v>-3.95805698104154</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.21654058203429</v>
+        <v>-11.2424425404152</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>6.997824436029669</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.77049383765355</v>
+        <v>-44.74594613417477</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.191922624520417</v>
+        <v>-4.195692048814808</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.35676218798427</v>
+        <v>-11.38309926797634</v>
       </c>
     </row>
   </sheetData>
